--- a/Day 1 Problems.xlsx
+++ b/Day 1 Problems.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ae0f4e67000b747/Documents/Advent of Code/Day 1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{BFF541D4-DAD4-475B-A050-19B307743DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FA79183-B8E9-4C98-93B9-2438AECD65D2}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{BFF541D4-DAD4-475B-A050-19B307743DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FB41DD-AF2B-4CF2-B80F-3C0C0B8A3694}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{4944FE86-5082-4C16-9556-B2ADF7668F3A}"/>
   </bookViews>
@@ -21,7 +16,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Calories</t>
   </si>
@@ -83,6 +78,9 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -153,8 +151,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Duncan Rhodes" refreshedDate="44898.943995833331" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{8D9759CE-9286-4518-BAC2-14D1A86FC44C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="44898.943995833331" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{8D9759CE-9286-4518-BAC2-14D1A86FC44C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="E1:F15" sheet="Sheet1"/>
   </cacheSource>
@@ -243,7 +245,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8DF57AC-A072-4C0A-A5ED-AF2EECCEEDD6}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8DF57AC-A072-4C0A-A5ED-AF2EECCEEDD6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -677,6 +679,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -685,9 +688,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K2238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -707,6 +708,12 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5">
@@ -806,6 +813,9 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
       <c r="K5">
         <f>SUM(K2:K4)</f>
         <v>200158</v>
@@ -23051,5 +23061,6 @@
   </sheetData>
   <autoFilter ref="F1:H243" xr:uid="{385C2627-CE9F-4694-B622-CB408794A70B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>